--- a/data/Santa Bárbara.xlsx
+++ b/data/Santa Bárbara.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/04/2020</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">

--- a/data/Santa Bárbara.xlsx
+++ b/data/Santa Bárbara.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">

--- a/data/Santa Bárbara.xlsx
+++ b/data/Santa Bárbara.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">

--- a/data/Santa Bárbara.xlsx
+++ b/data/Santa Bárbara.xlsx
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F51" t="n">

--- a/data/Santa Bárbara.xlsx
+++ b/data/Santa Bárbara.xlsx
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
